--- a/map/地图距离.xlsx
+++ b/map/地图距离.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cks\校园外卖快递取送投递系统\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E4FD73-01C9-4055-91DF-75E330B1BC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB44923-C5E4-492C-A0DF-E0C6B3A1EE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{DD7A0914-B5E2-4762-A893-C5193BF9F331}"/>
   </bookViews>
@@ -796,13 +796,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D08AF-F06B-4999-8649-42C56F08F35F}">
-  <dimension ref="A1:OS408"/>
+  <dimension ref="A1:OT409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="NM384" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AS371" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="NU411" sqref="NU411"/>
+      <selection pane="bottomRight" activeCell="AU409" sqref="AU409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -811,7 +811,7 @@
     <col min="400" max="400" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:409" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:410" x14ac:dyDescent="0.3">
       <c r="C1">
         <v>1</v>
       </c>
@@ -2033,8 +2033,11 @@
       <c r="OS1">
         <v>407</v>
       </c>
-    </row>
-    <row r="2" spans="1:409" x14ac:dyDescent="0.3">
+      <c r="OT1">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2045,7 +2048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:409" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2056,7 +2059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:409" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2067,7 +2070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:409" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2078,7 +2081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:409" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2089,7 +2092,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:409" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2100,7 +2103,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:409" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2111,7 +2114,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:409" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2122,7 +2125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:409" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2133,7 +2136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:409" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2144,7 +2147,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:409" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2155,7 +2158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:409" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2166,7 +2169,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:409" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2177,7 +2180,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:409" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2188,7 +2191,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:409" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2375,7 +2378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:392" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2386,7 +2389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:392" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2397,7 +2400,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:392" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2408,7 +2411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:392" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2419,7 +2422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:392" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2430,7 +2433,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:392" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2441,7 +2444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:392" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2452,7 +2455,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:392" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2463,7 +2466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:392" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2474,7 +2477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:392" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2485,7 +2488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:392" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2496,7 +2499,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:392" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2507,7 +2510,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:392" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2518,18 +2521,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:392" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="KZ46">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:392" x14ac:dyDescent="0.3">
+      <c r="OT46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2540,7 +2543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:392" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5830,7 +5833,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="289" spans="1:404" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
@@ -5847,7 +5850,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="290" spans="1:404" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
@@ -5861,21 +5864,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="291" spans="1:404" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
       <c r="KA291">
         <v>27</v>
       </c>
-      <c r="KZ291">
-        <v>65</v>
-      </c>
       <c r="OM291">
         <v>12</v>
       </c>
-    </row>
-    <row r="292" spans="1:404" x14ac:dyDescent="0.3">
+      <c r="OT291">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="292" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
@@ -5889,7 +5892,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="293" spans="1:404" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
@@ -5906,7 +5909,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="294" spans="1:404" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293</v>
       </c>
@@ -5920,7 +5923,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="295" spans="1:404" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>294</v>
       </c>
@@ -5934,7 +5937,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="296" spans="1:404" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
@@ -5951,7 +5954,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="297" spans="1:404" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>296</v>
       </c>
@@ -5965,7 +5968,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="298" spans="1:404" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>297</v>
       </c>
@@ -5979,7 +5982,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="299" spans="1:404" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>298</v>
       </c>
@@ -5993,7 +5996,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="300" spans="1:404" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
@@ -6010,7 +6013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="301" spans="1:404" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>300</v>
       </c>
@@ -6024,7 +6027,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="302" spans="1:404" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>301</v>
       </c>
@@ -6038,7 +6041,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="303" spans="1:404" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>302</v>
       </c>
@@ -6052,7 +6055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="304" spans="1:404" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>303</v>
       </c>
@@ -7352,11 +7355,8 @@
       <c r="JA400">
         <v>84</v>
       </c>
-      <c r="KZ400">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="401" spans="1:406" x14ac:dyDescent="0.3">
+    </row>
+    <row r="401" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>400</v>
       </c>
@@ -7369,8 +7369,11 @@
       <c r="JP401">
         <v>230</v>
       </c>
-    </row>
-    <row r="402" spans="1:406" x14ac:dyDescent="0.3">
+      <c r="OT401">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="402" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>401</v>
       </c>
@@ -7384,7 +7387,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="403" spans="1:406" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>402</v>
       </c>
@@ -7398,7 +7401,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="404" spans="1:406" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>403</v>
       </c>
@@ -7415,7 +7418,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="405" spans="1:406" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>404</v>
       </c>
@@ -7429,7 +7432,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="406" spans="1:406" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>405</v>
       </c>
@@ -7443,7 +7446,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="407" spans="1:406" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>406</v>
       </c>
@@ -7454,7 +7457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="408" spans="1:406" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:410" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>407</v>
       </c>
@@ -7466,6 +7469,20 @@
       </c>
       <c r="NP408">
         <v>34</v>
+      </c>
+    </row>
+    <row r="409" spans="1:410" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>408</v>
+      </c>
+      <c r="AU409">
+        <v>20</v>
+      </c>
+      <c r="KF409">
+        <v>65</v>
+      </c>
+      <c r="OK409">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/map/地图距离.xlsx
+++ b/map/地图距离.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cks\校园外卖快递取送投递系统\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB44923-C5E4-492C-A0DF-E0C6B3A1EE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0A396F-7346-4D50-B86C-D4F137E3C3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{DD7A0914-B5E2-4762-A893-C5193BF9F331}"/>
   </bookViews>
@@ -799,10 +799,10 @@
   <dimension ref="A1:OT409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AS371" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="FF223" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AU409" sqref="AU409"/>
+      <selection pane="bottomRight" activeCell="GB253" sqref="GB253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4074,6 +4074,12 @@
       <c r="A168">
         <v>167</v>
       </c>
+      <c r="IE168">
+        <v>97</v>
+      </c>
+      <c r="JI168">
+        <v>89</v>
+      </c>
     </row>
     <row r="169" spans="1:394" x14ac:dyDescent="0.3">
       <c r="A169">
